--- a/Assignment_Info/groupUpdateTemplate.xlsx
+++ b/Assignment_Info/groupUpdateTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruwantennakoon/Teaching/2022/COSC1076/Assignments/A2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\novatic\projects\Adv-Prog-A2\Assignment_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69252C8-F6F8-8448-85EA-3FAE931ED2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F747B52-AC27-473B-A368-40DDEC296FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Assignment 2 | Weekly Update Tracking Sheet</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Group Member:</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>On-track</t>
   </si>
   <si>
@@ -163,6 +160,42 @@
   </si>
   <si>
     <t>Gameplay for single round</t>
+  </si>
+  <si>
+    <t>Liam Whitaker (s3899679)</t>
+  </si>
+  <si>
+    <t>Created the Git repository and a team group.</t>
+  </si>
+  <si>
+    <t>Tested positive for COVID, was not able to attend classes for the week: randomly assigned a group, with members from other classes.</t>
+  </si>
+  <si>
+    <t>Git repo is initiallised with all the skeleton code</t>
+  </si>
+  <si>
+    <t>and assignment info</t>
+  </si>
+  <si>
+    <t>very little</t>
+  </si>
+  <si>
+    <t>still unable to attend class.</t>
+  </si>
+  <si>
+    <t>=$B$5</t>
+  </si>
+  <si>
+    <t>Rest of group unresponsive. Far behind schedule.</t>
+  </si>
+  <si>
+    <t>Completed LinkedList ADT, including implementation of Node and Tile classes. Menu loop created. Ready for game implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
   </si>
 </sst>
 </file>
@@ -204,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -502,11 +535,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -571,11 +641,84 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1838,26 +1981,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="41.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="41.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1869,7 +2013,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +2027,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1895,7 +2039,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1909,12 +2053,12 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
@@ -1929,17 +2073,17 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1947,17 +2091,17 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1965,17 +2109,17 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1983,9 +2127,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1997,9 +2141,9 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2011,7 +2155,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
@@ -2023,24 +2167,23 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f>$B$5</f>
-        <v>A</v>
+      <c r="G12" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H12" s="9" t="str">
         <f>$B$6</f>
@@ -2051,100 +2194,108 @@
         <v>C</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="H14" s="23"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="23"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="23"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" s="23"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="28"/>
@@ -2153,7 +2304,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="30"/>
@@ -2165,7 +2316,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -2177,24 +2328,24 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="G22" s="8" t="str">
         <f>$B$5</f>
-        <v>A</v>
+        <v>Liam Whitaker (s3899679)</v>
       </c>
       <c r="H22" s="9" t="str">
         <f>$B$6</f>
@@ -2205,63 +2356,67 @@
         <v>C</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="35"/>
       <c r="D23" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="H24" s="17"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="22"/>
@@ -2269,12 +2424,12 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="24"/>
@@ -2283,12 +2438,12 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="24"/>
@@ -2297,12 +2452,12 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="18"/>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="24"/>
@@ -2311,7 +2466,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="25"/>
@@ -2323,14 +2478,14 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="28"/>
@@ -2339,7 +2494,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="30"/>
@@ -2351,7 +2506,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -2363,88 +2518,93 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>5</v>
+      <c r="G34" s="8" t="str">
+        <f>$B$5</f>
+        <v>Liam Whitaker (s3899679)</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H36" s="23"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="24"/>
@@ -2453,7 +2613,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="18"/>
@@ -2465,7 +2625,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="25"/>
@@ -2477,14 +2637,14 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="28"/>
@@ -2493,7 +2653,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="30"/>
@@ -2505,7 +2665,7 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -2517,86 +2677,91 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>5</v>
+      <c r="G44" s="8" t="str">
+        <f>$B$5</f>
+        <v>Liam Whitaker (s3899679)</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
       <c r="D45" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="H45" s="17"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18"/>
       <c r="D46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="H46" s="23"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19"/>
       <c r="E47" s="7"/>
       <c r="F47" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="7"/>
       <c r="C48" s="18"/>
       <c r="D48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="24"/>
@@ -2605,12 +2770,12 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="7"/>
       <c r="C49" s="18"/>
       <c r="D49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="24"/>
@@ -2619,7 +2784,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="25"/>
@@ -2631,14 +2796,14 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="28"/>
@@ -2647,7 +2812,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="30"/>
@@ -2659,7 +2824,7 @@
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -2672,13 +2837,42 @@
       <c r="J53" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G14:G16"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19:I19 A24:C26 A1:I16 A18:I18 A17:C17 E17:I17 A19:D23 E20:I22 E23:E26 G23:I26 F23:F25">
+  <conditionalFormatting sqref="F19:I19 A24:C26 A18:I18 A17:C17 A19:D23 E20:I22 E23:E26 G23:I26 F23:F25 A1:I14 A15:F16 E17:I17 H15:I16">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D26 A27:I28 A29:C31 E29:I29 D30:I30 D31 F31:I31 A32:I33 A34:E40 A41:D52 E42:I43 E44:E50 E52:I52 A53:I53">
+    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J26">
     <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2692,37 +2886,37 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D26 A27:I28 A29:C31 E29:I29 D30:I30 D31 F31:I31 A32:I33 A34:E40 A41:D52 E42:I43 E44:E50 E52:I52 A53:I53">
+  <conditionalFormatting sqref="J27:J33 J42:J43 J52:J53">
     <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J26">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J33 J42:J43 J52:J53">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
